--- a/data/b5.xlsx
+++ b/data/b5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\quiz_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D304A-80F7-48FD-A2E7-7CA7CECBF806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113478A3-4FC3-41E0-8562-E1EA659D0BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1860" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1861,7 +1861,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="27" thickBot="1">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="27" thickBot="1">
+    <row r="55" spans="1:5" ht="15.75" thickBot="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
